--- a/Docs/SPG76212_params.xlsx
+++ b/Docs/SPG76212_params.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="65">
   <si>
     <t>Наименование</t>
   </si>
@@ -193,13 +193,31 @@
   </si>
   <si>
     <t>СПГ_имя</t>
+  </si>
+  <si>
+    <t>Суточный</t>
+  </si>
+  <si>
+    <t>И так далее для всех систем.</t>
+  </si>
+  <si>
+    <t>Чтение значений ТОТАЛЬНЫХ: (в таблицу current_values)</t>
+  </si>
+  <si>
+    <t>любой</t>
+  </si>
+  <si>
+    <t>Текущий</t>
+  </si>
+  <si>
+    <t>1-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +287,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -314,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -368,6 +394,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -720,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -758,7 +788,7 @@
       </c>
       <c r="F2" s="11">
         <f ca="1">TODAY()</f>
-        <v>42075</v>
+        <v>42309</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -1448,6 +1478,11 @@
       </c>
       <c r="K29" s="3"/>
     </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B30" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="32" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>40</v>
@@ -1509,7 +1544,7 @@
         <v>7</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1535,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1561,7 +1596,7 @@
         <v>7</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1587,7 +1622,7 @@
         <v>7</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1612,8 +1647,8 @@
       <c r="G38" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="19" t="s">
-        <v>39</v>
+      <c r="H38" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1638,8 +1673,8 @@
       <c r="G39" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="24" t="s">
-        <v>39</v>
+      <c r="H39" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1664,8 +1699,8 @@
       <c r="G40" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="24" t="s">
-        <v>39</v>
+      <c r="H40" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1690,8 +1725,8 @@
       <c r="G41" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="24" t="s">
-        <v>39</v>
+      <c r="H41" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1716,8 +1751,8 @@
       <c r="G42" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="24" t="s">
-        <v>39</v>
+      <c r="H42" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1742,8 +1777,8 @@
       <c r="G43" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="24" t="s">
-        <v>39</v>
+      <c r="H43" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1768,8 +1803,8 @@
       <c r="G44" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="24" t="s">
-        <v>39</v>
+      <c r="H44" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1794,8 +1829,8 @@
       <c r="G45" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="24" t="s">
-        <v>39</v>
+      <c r="H45" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1820,8 +1855,8 @@
       <c r="G46" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="24" t="s">
-        <v>39</v>
+      <c r="H46" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1846,8 +1881,8 @@
       <c r="G47" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="31" t="s">
-        <v>39</v>
+      <c r="H47" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1872,8 +1907,8 @@
       <c r="G48" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="19" t="s">
-        <v>39</v>
+      <c r="H48" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1898,8 +1933,8 @@
       <c r="G49" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="24" t="s">
-        <v>39</v>
+      <c r="H49" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1924,8 +1959,8 @@
       <c r="G50" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="24" t="s">
-        <v>39</v>
+      <c r="H50" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1950,8 +1985,8 @@
       <c r="G51" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H51" s="24" t="s">
-        <v>39</v>
+      <c r="H51" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1976,8 +2011,8 @@
       <c r="G52" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="24" t="s">
-        <v>39</v>
+      <c r="H52" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -2002,8 +2037,8 @@
       <c r="G53" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="24" t="s">
-        <v>39</v>
+      <c r="H53" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -2028,8 +2063,8 @@
       <c r="G54" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H54" s="24" t="s">
-        <v>39</v>
+      <c r="H54" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -2054,8 +2089,8 @@
       <c r="G55" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H55" s="24" t="s">
-        <v>39</v>
+      <c r="H55" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -2080,8 +2115,8 @@
       <c r="G56" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="24" t="s">
-        <v>39</v>
+      <c r="H56" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -2106,9 +2141,125 @@
       <c r="G57" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H57" s="31" t="s">
-        <v>39</v>
-      </c>
+      <c r="H57" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B61" s="14">
+        <v>160</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="14">
+        <v>160</v>
+      </c>
+      <c r="G61" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B62" s="14">
+        <v>162</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="14">
+        <v>162</v>
+      </c>
+      <c r="G62" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B63" s="14">
+        <v>163</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="14">
+        <v>163</v>
+      </c>
+      <c r="G63" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
